--- a/Tables/BaseType/EventEffectList.xlsx
+++ b/Tables/BaseType/EventEffectList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>事件效果器</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>建造塔:id</t>
+  </si>
+  <si>
+    <t>出售塔</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>出售当前塔</t>
+  </si>
+  <si>
+    <t>升级塔</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>将当前塔升级至：id</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1062,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -1078,14 +1096,26 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="8"/>

--- a/Tables/BaseType/EventEffectList.xlsx
+++ b/Tables/BaseType/EventEffectList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>事件效果器</t>
   </si>
@@ -34,19 +34,10 @@
     <t>建造塔:id</t>
   </si>
   <si>
-    <t>出售塔</t>
+    <t>升级塔</t>
   </si>
   <si>
     <t>1001</t>
-  </si>
-  <si>
-    <t>出售当前塔</t>
-  </si>
-  <si>
-    <t>升级塔</t>
-  </si>
-  <si>
-    <t>1002</t>
   </si>
   <si>
     <t>将当前塔升级至：id</t>
@@ -1062,7 +1053,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -1107,15 +1098,9 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="8"/>

--- a/Tables/BaseType/EventEffectList.xlsx
+++ b/Tables/BaseType/EventEffectList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>事件效果器</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>将当前塔升级至：id</t>
+  </si>
+  <si>
+    <t>学习技能</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>将Class#技能提升至下一级（未学习则学习，已学习则将当前等级提升至下一级）</t>
   </si>
 </sst>
 </file>
@@ -1053,14 +1062,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38" style="3" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
@@ -1098,9 +1107,15 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="8"/>
